--- a/Testing_Execution/Defect_Logs.xlsx
+++ b/Testing_Execution/Defect_Logs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\DemoBlaze_Project\Testing_Execution\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{CE2CE4F7-D54A-4B99-BB69-FB5714BC73C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1A9C9A-DA22-4BF4-9503-A469B76DA6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{6B934DA7-E1CE-4FE7-AD89-F8654FFF6EE7}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -521,14 +520,20 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="36.85546875" style="2"/>
-    <col min="4" max="4" width="33.85546875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="36.85546875" style="2"/>
+    <col min="1" max="1" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="36.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
@@ -557,7 +562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -583,7 +588,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -609,7 +614,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
